--- a/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>1823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4547</v>
+        <v>3950</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04817424154232942</v>
+        <v>0.04817424154232941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.017470733459184</v>
+        <v>0.01734012761330921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1201604191279902</v>
+        <v>0.1043718141906217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>11515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7266</v>
+        <v>7547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17740</v>
+        <v>18466</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1073748211063306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06775581284935328</v>
+        <v>0.07036925514259393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1654156962159407</v>
+        <v>0.1721855638429659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -783,19 +783,19 @@
         <v>13339</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8465</v>
+        <v>8503</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19651</v>
+        <v>19712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09193322458063787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05834555532871397</v>
+        <v>0.0586064985201053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1354377558936961</v>
+        <v>0.1358593431794595</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15385</v>
+        <v>15649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25857</v>
+        <v>24991</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5498673420875445</v>
+        <v>0.5498673420875444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.40652697079539</v>
+        <v>0.4135016512011461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.683243545584184</v>
+        <v>0.6603412790491358</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -833,19 +833,19 @@
         <v>61538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53963</v>
+        <v>53236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69087</v>
+        <v>69318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5738048033887378</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5031790708799718</v>
+        <v>0.4963989812530329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6442002341075749</v>
+        <v>0.6463519441878683</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -854,19 +854,19 @@
         <v>82347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72836</v>
+        <v>73292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91630</v>
+        <v>91743</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.567561070270166</v>
+        <v>0.5675610702701661</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5020024210709854</v>
+        <v>0.5051475747359377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6315410847830932</v>
+        <v>0.6323167159995945</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2841</v>
+        <v>4091</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01796689927416532</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07506028707219917</v>
+        <v>0.1080931794933906</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>3256</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1266</v>
+        <v>1241</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7047</v>
+        <v>6976</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03036388649885541</v>
+        <v>0.03036388649885542</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01180793146213705</v>
+        <v>0.01157469194811356</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0657083606923419</v>
+        <v>0.06504572099135329</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -925,19 +925,19 @@
         <v>3936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1532</v>
+        <v>1395</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7192</v>
+        <v>7722</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02713031553945494</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01055739146152391</v>
+        <v>0.009613947944501208</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04956903315046224</v>
+        <v>0.05321920452080697</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>3679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1491</v>
+        <v>1574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7494</v>
+        <v>7092</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09721064641193516</v>
+        <v>0.09721064641193515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0393946924384137</v>
+        <v>0.04158059094241613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1980302344254601</v>
+        <v>0.1874058860410735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -975,19 +975,19 @@
         <v>16784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11315</v>
+        <v>11237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23783</v>
+        <v>23500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1565038492444594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1055086324435647</v>
+        <v>0.1047761271088284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2217607217563397</v>
+        <v>0.2191260972636778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -996,19 +996,19 @@
         <v>20463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14190</v>
+        <v>14747</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27843</v>
+        <v>28755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1410380933076265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09780104198863813</v>
+        <v>0.1016369974310335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1918988988064839</v>
+        <v>0.1981889692359809</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>10853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6943</v>
+        <v>6765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16133</v>
+        <v>15573</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2867808706840254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1834665456571236</v>
+        <v>0.1787529106163365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4263036747270961</v>
+        <v>0.4114963704088739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1046,19 +1046,19 @@
         <v>14151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9477</v>
+        <v>9101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20530</v>
+        <v>20214</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1319526397616168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0883720194931224</v>
+        <v>0.0848604443285076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.191434868806865</v>
+        <v>0.1884834453117571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1067,19 +1067,19 @@
         <v>25004</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18274</v>
+        <v>18189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33261</v>
+        <v>32653</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1723372963021148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1259527238932895</v>
+        <v>0.1253612284040921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2292448242272322</v>
+        <v>0.2250543517831805</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2638</v>
+        <v>3193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0217736120947435</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09416735286228464</v>
+        <v>0.114006129385502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2947</v>
+        <v>3053</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03122020916842905</v>
+        <v>0.03122020916842906</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1044723458836477</v>
+        <v>0.1082365172412475</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1216,16 +1216,16 @@
         <v>421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4302</v>
+        <v>4458</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02651336338102</v>
+        <v>0.02651336338101999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007492383561326839</v>
+        <v>0.007488131007271733</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0765334320126914</v>
+        <v>0.0793056284764963</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>14776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10695</v>
+        <v>10375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19244</v>
+        <v>19220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5275242993398553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3818111708898151</v>
+        <v>0.3703978976326852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6870576170819684</v>
+        <v>0.686184849632998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1263,19 +1263,19 @@
         <v>17746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13213</v>
+        <v>13676</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21150</v>
+        <v>21195</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6291699879737948</v>
+        <v>0.6291699879737949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4684519401326268</v>
+        <v>0.4848778695409415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7498271416928314</v>
+        <v>0.7514526716973891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -1284,19 +1284,19 @@
         <v>32522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26456</v>
+        <v>27053</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37826</v>
+        <v>38235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.578524175770407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4706142601403266</v>
+        <v>0.4812405424371808</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6728704740930306</v>
+        <v>0.6801471622016932</v>
       </c>
     </row>
     <row r="12">
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4409</v>
+        <v>4134</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04836115430020782</v>
+        <v>0.04836115430020783</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1562975148956631</v>
+        <v>0.1465609461913253</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4443</v>
+        <v>5913</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02426480578268136</v>
+        <v>0.02426480578268135</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07903688726040128</v>
+        <v>0.1051797750623338</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>3320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1020</v>
+        <v>1181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7136</v>
+        <v>7220</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1185282318042665</v>
+        <v>0.1185282318042666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0364131127811382</v>
+        <v>0.0421562561211728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2547652687958371</v>
+        <v>0.2577770850789523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1397,19 +1397,19 @@
         <v>4527</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2252</v>
+        <v>1882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8430</v>
+        <v>7804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1605128444127932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07985267650141384</v>
+        <v>0.06672204928724014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2988832184785581</v>
+        <v>0.2766720599528009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1418,19 +1418,19 @@
         <v>7847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4457</v>
+        <v>4382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12609</v>
+        <v>12555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.139593660980812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07928428092921526</v>
+        <v>0.07794523479272454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2243012608999573</v>
+        <v>0.2233286510849603</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>9304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5500</v>
+        <v>5503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13380</v>
+        <v>13922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3321738567611346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.196363881784113</v>
+        <v>0.1964768419879601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4776782697949541</v>
+        <v>0.4970264819577898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1468,19 +1468,19 @@
         <v>3688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7256</v>
+        <v>7144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1307358041447751</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05865420791826854</v>
+        <v>0.05826086570187796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2572618477779511</v>
+        <v>0.253276573326332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1489,19 +1489,19 @@
         <v>12992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8749</v>
+        <v>8352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18771</v>
+        <v>18268</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2311039940850797</v>
+        <v>0.2311039940850796</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1556297868719397</v>
+        <v>0.1485649292819055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3339056450436028</v>
+        <v>0.3249648279269527</v>
       </c>
     </row>
     <row r="15">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3716</v>
+        <v>3596</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1599806835576743</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4500550828879109</v>
+        <v>0.4355242050783434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4041</v>
+        <v>4354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08738968967450571</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2673480108842158</v>
+        <v>0.2880776791707292</v>
       </c>
     </row>
     <row r="17">
@@ -1659,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3731</v>
+        <v>3713</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2000667771321527</v>
+        <v>0.2000667771321526</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5439721730645219</v>
+        <v>0.5412855681241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
         <v>3981</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1845</v>
+        <v>1976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6074</v>
+        <v>6268</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4821373940528377</v>
+        <v>0.4821373940528376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2234426928210572</v>
+        <v>0.2393501581108507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7356593292246602</v>
+        <v>0.7591602548962646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1698,19 +1698,19 @@
         <v>5353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2449</v>
+        <v>2726</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8424</v>
+        <v>8559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.354148277040912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1620335115632308</v>
+        <v>0.1803482329279515</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5573040706407786</v>
+        <v>0.5662583453317928</v>
       </c>
     </row>
     <row r="18">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3000</v>
+        <v>2974</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09604455724473991</v>
+        <v>0.0960445572447399</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.437383822311066</v>
+        <v>0.4336555103449886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3295</v>
+        <v>3477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0435800729964446</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2180124250635489</v>
+        <v>0.230045022849276</v>
       </c>
     </row>
     <row r="20">
@@ -1837,19 +1837,19 @@
         <v>4828</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2521</v>
+        <v>2335</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6313</v>
+        <v>6296</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7038886656231074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3675244981287701</v>
+        <v>0.3404630787021063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9204051495290441</v>
+        <v>0.9179288130634026</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1858,19 +1858,19 @@
         <v>2955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1314</v>
+        <v>1245</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5246</v>
+        <v>5255</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.357881922389488</v>
+        <v>0.3578819223894879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1591903708502762</v>
+        <v>0.1507743443367983</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6353638847814747</v>
+        <v>0.6364423506523471</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1879,19 +1879,19 @@
         <v>7782</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4649</v>
+        <v>4710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10855</v>
+        <v>10760</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5148819602881377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3075894985686231</v>
+        <v>0.311603973859498</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7181425677422741</v>
+        <v>0.711907713680895</v>
       </c>
     </row>
     <row r="21">
@@ -1983,19 +1983,19 @@
         <v>2433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5411</v>
+        <v>4948</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03346042764996544</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01373338448077071</v>
+        <v>0.01269835772638239</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07441840569717512</v>
+        <v>0.06804213289107425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2004,19 +2004,19 @@
         <v>13717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8832</v>
+        <v>9113</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20238</v>
+        <v>20591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09545023955334052</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06145555408492396</v>
+        <v>0.06341409801029886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1408238404320572</v>
+        <v>0.1432817139783047</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2025,19 +2025,19 @@
         <v>16150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11264</v>
+        <v>11238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23224</v>
+        <v>23251</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07462290541537134</v>
+        <v>0.07462290541537132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05204480697059187</v>
+        <v>0.05192877034777364</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1073079771253369</v>
+        <v>0.1074362920973139</v>
       </c>
     </row>
     <row r="23">
@@ -2054,19 +2054,19 @@
         <v>36958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>30286</v>
+        <v>29712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44090</v>
+        <v>44015</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.508266276372925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4165093325904505</v>
+        <v>0.4086178510882298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6063565578378137</v>
+        <v>0.605319284388534</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>156</v>
@@ -2075,19 +2075,19 @@
         <v>83265</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74529</v>
+        <v>73743</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>92853</v>
+        <v>92254</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5794047175536046</v>
+        <v>0.5794047175536047</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5186129485162658</v>
+        <v>0.5131450642445375</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6461235830150553</v>
+        <v>0.6419554709464254</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -2096,19 +2096,19 @@
         <v>120223</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109075</v>
+        <v>108076</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>132300</v>
+        <v>131501</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5555036273739196</v>
+        <v>0.5555036273739197</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5039942290927489</v>
+        <v>0.4993797173161004</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6113099166387405</v>
+        <v>0.6076143965095149</v>
       </c>
     </row>
     <row r="24">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3811</v>
+        <v>3378</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.009351117435697599</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05240711767244532</v>
+        <v>0.04645698617703969</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2146,19 +2146,19 @@
         <v>4620</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1965</v>
+        <v>1974</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9163</v>
+        <v>9544</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03215169884427385</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01367033995560281</v>
+        <v>0.01373915874153352</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06375776591845166</v>
+        <v>0.06641006146017552</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2167,19 +2167,19 @@
         <v>5300</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2423</v>
+        <v>2719</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10075</v>
+        <v>10082</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02449116055652127</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01119671084886843</v>
+        <v>0.0125625021984927</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04655463541554288</v>
+        <v>0.04658333082269753</v>
       </c>
     </row>
     <row r="25">
@@ -2196,19 +2196,19 @@
         <v>7658</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4183</v>
+        <v>3978</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12216</v>
+        <v>12596</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1053124773299881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05753336970674283</v>
+        <v>0.05470865318243589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1680075681447912</v>
+        <v>0.1732223883033141</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2217,19 +2217,19 @@
         <v>21312</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14554</v>
+        <v>15396</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29180</v>
+        <v>29196</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1482987913470855</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1012732734390072</v>
+        <v>0.1071345800319699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2030480518338401</v>
+        <v>0.2031642978021</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2238,19 +2238,19 @@
         <v>28969</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22100</v>
+        <v>22021</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38198</v>
+        <v>37656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1338562515505579</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1021168096553123</v>
+        <v>0.1017509104752276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1764981036964343</v>
+        <v>0.1739952884357559</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>24985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18554</v>
+        <v>18642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31817</v>
+        <v>32158</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3436097012114239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2551724896445453</v>
+        <v>0.2563804896982615</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4375628999808953</v>
+        <v>0.4422597120709089</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -2288,19 +2288,19 @@
         <v>20794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15182</v>
+        <v>15143</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28077</v>
+        <v>28893</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1446945527016953</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1056431861753811</v>
+        <v>0.1053761144593992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1953749067498615</v>
+        <v>0.2010550185673212</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -2309,19 +2309,19 @@
         <v>45779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37012</v>
+        <v>36157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56861</v>
+        <v>56637</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2115260551036299</v>
+        <v>0.2115260551036298</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1710166950831063</v>
+        <v>0.167069506545661</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2627336790383709</v>
+        <v>0.2616979595759757</v>
       </c>
     </row>
     <row r="27">
